--- a/biology/Zoologie/Conocrinus/Conocrinus.xlsx
+++ b/biology/Zoologie/Conocrinus/Conocrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conocrinus est un genre de crinoïdes pourvus d'un pédoncule de la famille des Bourgueticrinidae.
 L'espèce Conocrinus lofotensis (M. Sars, 1868) fut le premier crinoïde pédonculé trouvé vivant (par Michael Sars en 1868), alors qu'on pensait ce groupe totalement éteint depuis des millions d'années. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 mars 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 mars 2015) :
 Conocrinus cabiochi Roux, 1976
 Conocrinus cherbonnieri Roux, 1976
 Conocrinus globularis (Gislén, 1925)
